--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250671.23</v>
+        <v>582051.8100000001</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35810.18</v>
+        <v>58205.18</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15212.9</v>
+        <v>15172.42</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49597.07</v>
+        <v>49706</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46828.4</v>
+        <v>47024.7</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62634.96</v>
+        <v>62534.94</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>692.3099999999999</v>
+        <v>684.04</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1712.67</v>
+        <v>1828.1</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73992.92</v>
+        <v>74232.56</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>21196.09</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7851.56</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>301821.4</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,125 +439,166 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>582051.8100000001</v>
+        <v>15172.42</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15443.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58205.18</v>
+        <v>49706</v>
+      </c>
+      <c r="C3" t="n">
+        <v>49652.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15172.42</v>
+        <v>21196.09</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23185.11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49706</v>
+        <v>7851.56</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7838.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47024.7</v>
+        <v>301821.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>301539.77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62534.94</v>
+        <v>47024.7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46704.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>684.04</v>
+        <v>62534.94</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62503.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1828.1</v>
+        <v>74232.56</v>
+      </c>
+      <c r="C9" t="n">
+        <v>74050.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74232.56</v>
+        <v>684.04</v>
+      </c>
+      <c r="C10" t="n">
+        <v>774.84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21196.09</v>
+        <v>1828.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1368.26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7851.56</v>
+        <v>58205.18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>58306.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>301821.4</v>
+        <v>582051.8100000001</v>
+      </c>
+      <c r="C13" t="n">
+        <v>583060.33</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,125 +439,166 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583060.33</v>
+        <v>15443.36</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15477.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58306.03</v>
+        <v>49652.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50471.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15443.36</v>
+        <v>23185.11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21444.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49652.25</v>
+        <v>7838.42</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7846.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23185.11</v>
+        <v>301539.77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>301671.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7838.42</v>
+        <v>46704.71</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46566.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>301539.77</v>
+        <v>62503.09</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62757.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46704.71</v>
+        <v>74050.52</v>
+      </c>
+      <c r="C9" t="n">
+        <v>74056.39999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62503.09</v>
+        <v>774.84</v>
+      </c>
+      <c r="C10" t="n">
+        <v>866.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74050.52</v>
+        <v>1368.26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1545.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>774.84</v>
+        <v>58306.03</v>
+      </c>
+      <c r="C12" t="n">
+        <v>58270.53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1368.26</v>
+        <v>583060.33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>582705.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -519,9 +519,7 @@
       <c r="B7" t="n">
         <v>46704.71</v>
       </c>
-      <c r="C7" t="n">
-        <v>46566.85</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -585,7 +583,7 @@
         <v>58306.03</v>
       </c>
       <c r="C12" t="n">
-        <v>58270.53</v>
+        <v>59570.94</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +596,7 @@
         <v>583060.33</v>
       </c>
       <c r="C13" t="n">
-        <v>582705.28</v>
+        <v>536138.4300000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15443.36</v>
+        <v>15385.33</v>
       </c>
       <c r="C2" t="n">
-        <v>15477.72</v>
+        <v>15217.98</v>
       </c>
       <c r="D2" t="n">
-        <v>15527.08</v>
+        <v>15763.51</v>
       </c>
       <c r="E2" t="n">
-        <v>15170.6</v>
+        <v>15549.68</v>
       </c>
       <c r="F2" t="n">
-        <v>15500.26</v>
+        <v>15136.97</v>
       </c>
       <c r="G2" t="n">
-        <v>15329.83</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15551.95</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15545.96</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15179.65</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15162.33</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15135.05</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15385.33</v>
+        <v>15421.61</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49652.25</v>
+        <v>49562.32</v>
       </c>
       <c r="C3" t="n">
-        <v>50471.92</v>
+        <v>49846.08</v>
       </c>
       <c r="D3" t="n">
-        <v>49848.45</v>
+        <v>50935.52</v>
       </c>
       <c r="E3" t="n">
-        <v>50198.27</v>
+        <v>50000.97</v>
       </c>
       <c r="F3" t="n">
-        <v>50488.91</v>
+        <v>49494.96</v>
       </c>
       <c r="G3" t="n">
-        <v>49662.24</v>
-      </c>
-      <c r="H3" t="n">
-        <v>49593.48</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50513.9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>49624.65</v>
-      </c>
-      <c r="K3" t="n">
-        <v>50525.41</v>
-      </c>
-      <c r="L3" t="n">
-        <v>50445.8</v>
-      </c>
-      <c r="M3" t="n">
-        <v>49562.32</v>
+        <v>50482.47</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23185.11</v>
+        <v>21782.13</v>
       </c>
       <c r="C4" t="n">
-        <v>21444.91</v>
+        <v>22568.69</v>
       </c>
       <c r="D4" t="n">
-        <v>23451.27</v>
+        <v>23073.14</v>
       </c>
       <c r="E4" t="n">
-        <v>23052.2</v>
+        <v>23309.95</v>
       </c>
       <c r="F4" t="n">
-        <v>22040.54</v>
+        <v>21624.26</v>
       </c>
       <c r="G4" t="n">
-        <v>22944.07</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20696.29</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21010.29</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21176.06</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21690.28</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21649.19</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21782.13</v>
+        <v>20618.78</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7838.42</v>
+        <v>7825.49</v>
       </c>
       <c r="C5" t="n">
-        <v>7846.92</v>
+        <v>7841.01</v>
       </c>
       <c r="D5" t="n">
-        <v>7837.54</v>
+        <v>7964.39</v>
       </c>
       <c r="E5" t="n">
-        <v>7847.48</v>
+        <v>7844.39</v>
       </c>
       <c r="F5" t="n">
-        <v>7844.58</v>
+        <v>7822.02</v>
       </c>
       <c r="G5" t="n">
-        <v>7829.98</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7839.12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7849.63</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7826.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7843.13</v>
-      </c>
-      <c r="L5" t="n">
-        <v>7851.2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>7825.49</v>
+        <v>7857.96</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>301539.77</v>
+        <v>293744.65</v>
       </c>
       <c r="C6" t="n">
-        <v>301671.15</v>
+        <v>294946.71</v>
       </c>
       <c r="D6" t="n">
-        <v>302027.91</v>
+        <v>298442.09</v>
       </c>
       <c r="E6" t="n">
-        <v>301115.01</v>
+        <v>289288.8</v>
       </c>
       <c r="F6" t="n">
-        <v>293929.9</v>
+        <v>288578.19</v>
       </c>
       <c r="G6" t="n">
-        <v>293656.81</v>
-      </c>
-      <c r="H6" t="n">
-        <v>293958.97</v>
-      </c>
-      <c r="I6" t="n">
-        <v>293818.75</v>
-      </c>
-      <c r="J6" t="n">
-        <v>293190.14</v>
-      </c>
-      <c r="K6" t="n">
-        <v>293966.72</v>
-      </c>
-      <c r="L6" t="n">
-        <v>294383.27</v>
-      </c>
-      <c r="M6" t="n">
-        <v>293744.65</v>
+        <v>290443.13</v>
       </c>
     </row>
     <row r="7">
@@ -717,38 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46704.71</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>49453.31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48868.72</v>
+      </c>
       <c r="D7" t="n">
-        <v>46777.07</v>
+        <v>50629.61</v>
       </c>
       <c r="E7" t="n">
-        <v>48821.24</v>
+        <v>49454.44</v>
       </c>
       <c r="F7" t="n">
-        <v>49357.93</v>
+        <v>48942.45</v>
       </c>
       <c r="G7" t="n">
-        <v>49136.44</v>
-      </c>
-      <c r="H7" t="n">
-        <v>49459.12</v>
-      </c>
-      <c r="I7" t="n">
-        <v>49183.12</v>
-      </c>
-      <c r="J7" t="n">
-        <v>49402.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>49843.53</v>
-      </c>
-      <c r="L7" t="n">
-        <v>49382.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>49453.31</v>
+        <v>52959.91</v>
       </c>
     </row>
     <row r="8">
@@ -758,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62503.09</v>
+        <v>62776.94</v>
       </c>
       <c r="C8" t="n">
-        <v>62757.32</v>
+        <v>62826.92</v>
       </c>
       <c r="D8" t="n">
-        <v>62198.03</v>
+        <v>63121.11</v>
       </c>
       <c r="E8" t="n">
-        <v>62456.83</v>
+        <v>62012.07</v>
       </c>
       <c r="F8" t="n">
-        <v>62205.9</v>
+        <v>62412.7</v>
       </c>
       <c r="G8" t="n">
-        <v>62891.05</v>
-      </c>
-      <c r="H8" t="n">
-        <v>62010.47</v>
-      </c>
-      <c r="I8" t="n">
-        <v>62208.23</v>
-      </c>
-      <c r="J8" t="n">
-        <v>62680.31</v>
-      </c>
-      <c r="K8" t="n">
-        <v>62351.88</v>
-      </c>
-      <c r="L8" t="n">
-        <v>62098.09</v>
-      </c>
-      <c r="M8" t="n">
-        <v>62776.94</v>
+        <v>63488.58</v>
       </c>
     </row>
     <row r="9">
@@ -801,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74050.52</v>
+        <v>74105.14</v>
       </c>
       <c r="C9" t="n">
-        <v>74056.39999999999</v>
+        <v>74191.28999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>74255.87</v>
+        <v>75336.64999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>74246.2</v>
+        <v>74257.28</v>
       </c>
       <c r="F9" t="n">
-        <v>74204.92999999999</v>
+        <v>74199.58</v>
       </c>
       <c r="G9" t="n">
-        <v>74046.14999999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>74095.69</v>
-      </c>
-      <c r="I9" t="n">
-        <v>74120.23</v>
-      </c>
-      <c r="J9" t="n">
-        <v>73984.64</v>
-      </c>
-      <c r="K9" t="n">
-        <v>74174.61</v>
-      </c>
-      <c r="L9" t="n">
-        <v>74120.11</v>
-      </c>
-      <c r="M9" t="n">
-        <v>74105.14</v>
+        <v>74266.75999999999</v>
       </c>
     </row>
     <row r="10">
@@ -844,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774.84</v>
+        <v>665.4299999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>866.99</v>
+        <v>683.3099999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>940.34</v>
+        <v>714.13</v>
       </c>
       <c r="E10" t="n">
-        <v>904.4299999999999</v>
+        <v>742.4299999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>818.02</v>
+        <v>694.14</v>
       </c>
       <c r="G10" t="n">
-        <v>835.01</v>
-      </c>
-      <c r="H10" t="n">
-        <v>886.99</v>
-      </c>
-      <c r="I10" t="n">
-        <v>799.8200000000001</v>
-      </c>
-      <c r="J10" t="n">
-        <v>774.17</v>
-      </c>
-      <c r="K10" t="n">
-        <v>745.79</v>
-      </c>
-      <c r="L10" t="n">
-        <v>656.1799999999999</v>
-      </c>
-      <c r="M10" t="n">
-        <v>665.4299999999999</v>
+        <v>642.37</v>
       </c>
     </row>
     <row r="11">
@@ -887,40 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1368.26</v>
+        <v>1954.81</v>
       </c>
       <c r="C11" t="n">
-        <v>1545.1</v>
+        <v>1374.56</v>
       </c>
       <c r="D11" t="n">
-        <v>1368.61</v>
+        <v>1433.1</v>
       </c>
       <c r="E11" t="n">
-        <v>1364.04</v>
+        <v>1515.81</v>
       </c>
       <c r="F11" t="n">
-        <v>1934.65</v>
+        <v>1422.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1365.39</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1452.53</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1448.11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1437.06</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1422.54</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1932.7</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1954.81</v>
+        <v>1437.14</v>
       </c>
     </row>
     <row r="12">
@@ -930,40 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58306.03</v>
+        <v>57725.56</v>
       </c>
       <c r="C12" t="n">
-        <v>59570.94</v>
+        <v>57836.53</v>
       </c>
       <c r="D12" t="n">
-        <v>58423.22</v>
+        <v>58741.32</v>
       </c>
       <c r="E12" t="n">
-        <v>58517.63</v>
+        <v>57397.58</v>
       </c>
       <c r="F12" t="n">
-        <v>57832.56</v>
+        <v>57032.75</v>
       </c>
       <c r="G12" t="n">
-        <v>57769.7</v>
-      </c>
-      <c r="H12" t="n">
-        <v>57554.46</v>
-      </c>
-      <c r="I12" t="n">
-        <v>57649.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>57527.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>57772.62</v>
-      </c>
-      <c r="L12" t="n">
-        <v>57765.41</v>
-      </c>
-      <c r="M12" t="n">
-        <v>57725.56</v>
+        <v>57761.87</v>
       </c>
     </row>
     <row r="13">
@@ -973,40 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>583060.33</v>
+        <v>577255.55</v>
       </c>
       <c r="C13" t="n">
-        <v>536138.4300000001</v>
+        <v>578365.27</v>
       </c>
       <c r="D13" t="n">
-        <v>584232.17</v>
+        <v>587413.25</v>
       </c>
       <c r="E13" t="n">
-        <v>585176.3</v>
+        <v>573975.8199999999</v>
       </c>
       <c r="F13" t="n">
-        <v>578325.62</v>
+        <v>570327.47</v>
       </c>
       <c r="G13" t="n">
-        <v>577696.97</v>
-      </c>
-      <c r="H13" t="n">
-        <v>575544.61</v>
-      </c>
-      <c r="I13" t="n">
-        <v>576498.04</v>
-      </c>
-      <c r="J13" t="n">
-        <v>575274.98</v>
-      </c>
-      <c r="K13" t="n">
-        <v>577726.22</v>
-      </c>
-      <c r="L13" t="n">
-        <v>577654.09</v>
-      </c>
-      <c r="M13" t="n">
-        <v>577255.55</v>
+        <v>577618.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>15443.36</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15477.72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15527.08</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15170.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15500.26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15329.83</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15551.95</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15545.96</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15179.65</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15162.33</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15135.05</v>
+      </c>
+      <c r="M2" t="n">
         <v>15385.33</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15217.98</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15763.51</v>
-      </c>
-      <c r="E2" t="n">
-        <v>15549.68</v>
-      </c>
-      <c r="F2" t="n">
-        <v>15136.97</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15421.61</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>49652.25</v>
+      </c>
+      <c r="C3" t="n">
+        <v>50471.92</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49848.45</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50198.27</v>
+      </c>
+      <c r="F3" t="n">
+        <v>50488.91</v>
+      </c>
+      <c r="G3" t="n">
+        <v>49662.24</v>
+      </c>
+      <c r="H3" t="n">
+        <v>49593.48</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50513.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>49624.65</v>
+      </c>
+      <c r="K3" t="n">
+        <v>50525.41</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50445.8</v>
+      </c>
+      <c r="M3" t="n">
         <v>49562.32</v>
-      </c>
-      <c r="C3" t="n">
-        <v>49846.08</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50935.52</v>
-      </c>
-      <c r="E3" t="n">
-        <v>50000.97</v>
-      </c>
-      <c r="F3" t="n">
-        <v>49494.96</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50482.47</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>23185.11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21444.91</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23451.27</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23052.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22040.54</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22944.07</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20696.29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21010.29</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21176.06</v>
+      </c>
+      <c r="K4" t="n">
+        <v>21690.28</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21649.19</v>
+      </c>
+      <c r="M4" t="n">
         <v>21782.13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>22568.69</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23073.14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>23309.95</v>
-      </c>
-      <c r="F4" t="n">
-        <v>21624.26</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20618.78</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>7838.42</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7846.92</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7837.54</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7847.48</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7844.58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7829.98</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7839.12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7849.63</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7826.25</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7843.13</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7851.2</v>
+      </c>
+      <c r="M5" t="n">
         <v>7825.49</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7841.01</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7964.39</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7844.39</v>
-      </c>
-      <c r="F5" t="n">
-        <v>7822.02</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7857.96</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>301539.77</v>
+      </c>
+      <c r="C6" t="n">
+        <v>301671.15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>302027.91</v>
+      </c>
+      <c r="E6" t="n">
+        <v>301115.01</v>
+      </c>
+      <c r="F6" t="n">
+        <v>293929.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>293656.81</v>
+      </c>
+      <c r="H6" t="n">
+        <v>293958.97</v>
+      </c>
+      <c r="I6" t="n">
+        <v>293818.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>293190.14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>293966.72</v>
+      </c>
+      <c r="L6" t="n">
+        <v>294383.27</v>
+      </c>
+      <c r="M6" t="n">
         <v>293744.65</v>
-      </c>
-      <c r="C6" t="n">
-        <v>294946.71</v>
-      </c>
-      <c r="D6" t="n">
-        <v>298442.09</v>
-      </c>
-      <c r="E6" t="n">
-        <v>289288.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>288578.19</v>
-      </c>
-      <c r="G6" t="n">
-        <v>290443.13</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,38 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>46704.71</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>46777.07</v>
+      </c>
+      <c r="E7" t="n">
+        <v>48821.24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>49357.93</v>
+      </c>
+      <c r="G7" t="n">
+        <v>49136.44</v>
+      </c>
+      <c r="H7" t="n">
+        <v>49459.12</v>
+      </c>
+      <c r="I7" t="n">
+        <v>49183.12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>49402.05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>49843.53</v>
+      </c>
+      <c r="L7" t="n">
+        <v>49382.5</v>
+      </c>
+      <c r="M7" t="n">
         <v>49453.31</v>
-      </c>
-      <c r="C7" t="n">
-        <v>48868.72</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50629.61</v>
-      </c>
-      <c r="E7" t="n">
-        <v>49454.44</v>
-      </c>
-      <c r="F7" t="n">
-        <v>48942.45</v>
-      </c>
-      <c r="G7" t="n">
-        <v>52959.91</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +758,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>62503.09</v>
+      </c>
+      <c r="C8" t="n">
+        <v>62757.32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>62198.03</v>
+      </c>
+      <c r="E8" t="n">
+        <v>62456.83</v>
+      </c>
+      <c r="F8" t="n">
+        <v>62205.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>62891.05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>62010.47</v>
+      </c>
+      <c r="I8" t="n">
+        <v>62208.23</v>
+      </c>
+      <c r="J8" t="n">
+        <v>62680.31</v>
+      </c>
+      <c r="K8" t="n">
+        <v>62351.88</v>
+      </c>
+      <c r="L8" t="n">
+        <v>62098.09</v>
+      </c>
+      <c r="M8" t="n">
         <v>62776.94</v>
-      </c>
-      <c r="C8" t="n">
-        <v>62826.92</v>
-      </c>
-      <c r="D8" t="n">
-        <v>63121.11</v>
-      </c>
-      <c r="E8" t="n">
-        <v>62012.07</v>
-      </c>
-      <c r="F8" t="n">
-        <v>62412.7</v>
-      </c>
-      <c r="G8" t="n">
-        <v>63488.58</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +801,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>74050.52</v>
+      </c>
+      <c r="C9" t="n">
+        <v>74056.39999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>74255.87</v>
+      </c>
+      <c r="E9" t="n">
+        <v>74246.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>74204.92999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>74046.14999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>74095.69</v>
+      </c>
+      <c r="I9" t="n">
+        <v>74120.23</v>
+      </c>
+      <c r="J9" t="n">
+        <v>73984.64</v>
+      </c>
+      <c r="K9" t="n">
+        <v>74174.61</v>
+      </c>
+      <c r="L9" t="n">
+        <v>74120.11</v>
+      </c>
+      <c r="M9" t="n">
         <v>74105.14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>74191.28999999999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75336.64999999999</v>
-      </c>
-      <c r="E9" t="n">
-        <v>74257.28</v>
-      </c>
-      <c r="F9" t="n">
-        <v>74199.58</v>
-      </c>
-      <c r="G9" t="n">
-        <v>74266.75999999999</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +844,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>774.84</v>
+      </c>
+      <c r="C10" t="n">
+        <v>866.99</v>
+      </c>
+      <c r="D10" t="n">
+        <v>940.34</v>
+      </c>
+      <c r="E10" t="n">
+        <v>904.4299999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>818.02</v>
+      </c>
+      <c r="G10" t="n">
+        <v>835.01</v>
+      </c>
+      <c r="H10" t="n">
+        <v>886.99</v>
+      </c>
+      <c r="I10" t="n">
+        <v>799.8200000000001</v>
+      </c>
+      <c r="J10" t="n">
+        <v>774.17</v>
+      </c>
+      <c r="K10" t="n">
+        <v>745.79</v>
+      </c>
+      <c r="L10" t="n">
+        <v>656.1799999999999</v>
+      </c>
+      <c r="M10" t="n">
         <v>665.4299999999999</v>
-      </c>
-      <c r="C10" t="n">
-        <v>683.3099999999999</v>
-      </c>
-      <c r="D10" t="n">
-        <v>714.13</v>
-      </c>
-      <c r="E10" t="n">
-        <v>742.4299999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>694.14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>642.37</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +887,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>1368.26</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1545.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1368.61</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1364.04</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1934.65</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1365.39</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1452.53</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1448.11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1437.06</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1422.54</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1932.7</v>
+      </c>
+      <c r="M11" t="n">
         <v>1954.81</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1374.56</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1433.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1515.81</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1422.2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1437.14</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +930,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>58306.03</v>
+      </c>
+      <c r="C12" t="n">
+        <v>59570.94</v>
+      </c>
+      <c r="D12" t="n">
+        <v>58423.22</v>
+      </c>
+      <c r="E12" t="n">
+        <v>58517.63</v>
+      </c>
+      <c r="F12" t="n">
+        <v>57832.56</v>
+      </c>
+      <c r="G12" t="n">
+        <v>57769.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>57554.46</v>
+      </c>
+      <c r="I12" t="n">
+        <v>57649.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>57527.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>57772.62</v>
+      </c>
+      <c r="L12" t="n">
+        <v>57765.41</v>
+      </c>
+      <c r="M12" t="n">
         <v>57725.56</v>
-      </c>
-      <c r="C12" t="n">
-        <v>57836.53</v>
-      </c>
-      <c r="D12" t="n">
-        <v>58741.32</v>
-      </c>
-      <c r="E12" t="n">
-        <v>57397.58</v>
-      </c>
-      <c r="F12" t="n">
-        <v>57032.75</v>
-      </c>
-      <c r="G12" t="n">
-        <v>57761.87</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +973,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>583060.33</v>
+      </c>
+      <c r="C13" t="n">
+        <v>536138.4300000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>584232.17</v>
+      </c>
+      <c r="E13" t="n">
+        <v>585176.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>578325.62</v>
+      </c>
+      <c r="G13" t="n">
+        <v>577696.97</v>
+      </c>
+      <c r="H13" t="n">
+        <v>575544.61</v>
+      </c>
+      <c r="I13" t="n">
+        <v>576498.04</v>
+      </c>
+      <c r="J13" t="n">
+        <v>575274.98</v>
+      </c>
+      <c r="K13" t="n">
+        <v>577726.22</v>
+      </c>
+      <c r="L13" t="n">
+        <v>577654.09</v>
+      </c>
+      <c r="M13" t="n">
         <v>577255.55</v>
-      </c>
-      <c r="C13" t="n">
-        <v>578365.27</v>
-      </c>
-      <c r="D13" t="n">
-        <v>587413.25</v>
-      </c>
-      <c r="E13" t="n">
-        <v>573975.8199999999</v>
-      </c>
-      <c r="F13" t="n">
-        <v>570327.47</v>
-      </c>
-      <c r="G13" t="n">
-        <v>577618.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CTIO.xlsx
+++ b/backend/src/excel_handler/files/CTIO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15443.36</v>
+        <v>15385.33</v>
       </c>
       <c r="C2" t="n">
-        <v>15477.72</v>
+        <v>15217.98</v>
       </c>
       <c r="D2" t="n">
-        <v>15527.08</v>
+        <v>15763.51</v>
       </c>
       <c r="E2" t="n">
-        <v>15170.6</v>
+        <v>15549.68</v>
       </c>
       <c r="F2" t="n">
-        <v>15500.26</v>
+        <v>15136.97</v>
       </c>
       <c r="G2" t="n">
-        <v>15329.83</v>
+        <v>15421.61</v>
       </c>
       <c r="H2" t="n">
-        <v>15551.95</v>
+        <v>15359.36</v>
       </c>
       <c r="I2" t="n">
-        <v>15545.96</v>
+        <v>15074.4</v>
       </c>
       <c r="J2" t="n">
-        <v>15179.65</v>
+        <v>15355.14</v>
       </c>
       <c r="K2" t="n">
-        <v>15162.33</v>
+        <v>15310.88</v>
       </c>
       <c r="L2" t="n">
-        <v>15135.05</v>
+        <v>15115.41</v>
       </c>
       <c r="M2" t="n">
-        <v>15385.33</v>
+        <v>15584.39</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15643.74</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14978.17</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15122.35</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>15321.66</v>
+      </c>
+      <c r="R2" t="n">
+        <v>15415.25</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14859</v>
+      </c>
+      <c r="T2" t="n">
+        <v>14844.67</v>
+      </c>
+      <c r="U2" t="n">
+        <v>15603.78</v>
+      </c>
+      <c r="V2" t="n">
+        <v>15367.14</v>
+      </c>
+      <c r="W2" t="n">
+        <v>15710.98</v>
+      </c>
+      <c r="X2" t="n">
+        <v>14837.93</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>14954.01</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>15519.52</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>15566.28</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49652.25</v>
+        <v>49562.32</v>
       </c>
       <c r="C3" t="n">
-        <v>50471.92</v>
+        <v>49846.08</v>
       </c>
       <c r="D3" t="n">
-        <v>49848.45</v>
+        <v>50935.52</v>
       </c>
       <c r="E3" t="n">
-        <v>50198.27</v>
+        <v>50000.97</v>
       </c>
       <c r="F3" t="n">
-        <v>50488.91</v>
+        <v>49494.96</v>
       </c>
       <c r="G3" t="n">
-        <v>49662.24</v>
+        <v>50482.47</v>
       </c>
       <c r="H3" t="n">
-        <v>49593.48</v>
+        <v>50372.47</v>
       </c>
       <c r="I3" t="n">
-        <v>50513.9</v>
+        <v>50377.82</v>
       </c>
       <c r="J3" t="n">
-        <v>49624.65</v>
+        <v>50340.3</v>
       </c>
       <c r="K3" t="n">
-        <v>50525.41</v>
+        <v>50143.05</v>
       </c>
       <c r="L3" t="n">
-        <v>50445.8</v>
+        <v>50087.47</v>
       </c>
       <c r="M3" t="n">
-        <v>49562.32</v>
+        <v>49808.15</v>
+      </c>
+      <c r="N3" t="n">
+        <v>50299.51</v>
+      </c>
+      <c r="O3" t="n">
+        <v>50004.68</v>
+      </c>
+      <c r="P3" t="n">
+        <v>50598.62</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>50660.96</v>
+      </c>
+      <c r="R3" t="n">
+        <v>50530.58</v>
+      </c>
+      <c r="S3" t="n">
+        <v>50165.75</v>
+      </c>
+      <c r="T3" t="n">
+        <v>49340.22</v>
+      </c>
+      <c r="U3" t="n">
+        <v>49616.3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>49676.95</v>
+      </c>
+      <c r="W3" t="n">
+        <v>50483.81</v>
+      </c>
+      <c r="X3" t="n">
+        <v>49789.9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>49844.18</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>50223.29</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>50104.31</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23185.11</v>
+        <v>21782.13</v>
       </c>
       <c r="C4" t="n">
-        <v>21444.91</v>
+        <v>22568.69</v>
       </c>
       <c r="D4" t="n">
-        <v>23451.27</v>
+        <v>23073.14</v>
       </c>
       <c r="E4" t="n">
-        <v>23052.2</v>
+        <v>23309.95</v>
       </c>
       <c r="F4" t="n">
-        <v>22040.54</v>
+        <v>21624.26</v>
       </c>
       <c r="G4" t="n">
-        <v>22944.07</v>
+        <v>20618.78</v>
       </c>
       <c r="H4" t="n">
-        <v>20696.29</v>
+        <v>21716.5</v>
       </c>
       <c r="I4" t="n">
-        <v>21010.29</v>
+        <v>22034.56</v>
       </c>
       <c r="J4" t="n">
-        <v>21176.06</v>
+        <v>21980.22</v>
       </c>
       <c r="K4" t="n">
-        <v>21690.28</v>
+        <v>22111.45</v>
       </c>
       <c r="L4" t="n">
-        <v>21649.19</v>
+        <v>21383.15</v>
       </c>
       <c r="M4" t="n">
-        <v>21782.13</v>
+        <v>22317.48</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22072.41</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20209.35</v>
+      </c>
+      <c r="P4" t="n">
+        <v>20268.76</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>20952</v>
+      </c>
+      <c r="R4" t="n">
+        <v>23352.65</v>
+      </c>
+      <c r="S4" t="n">
+        <v>22476.69</v>
+      </c>
+      <c r="T4" t="n">
+        <v>22025.05</v>
+      </c>
+      <c r="U4" t="n">
+        <v>22530.14</v>
+      </c>
+      <c r="V4" t="n">
+        <v>21847.03</v>
+      </c>
+      <c r="W4" t="n">
+        <v>22733.31</v>
+      </c>
+      <c r="X4" t="n">
+        <v>23366.88</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>20187.14</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21895.23</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>22528.41</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7838.42</v>
+        <v>7825.49</v>
       </c>
       <c r="C5" t="n">
-        <v>7846.92</v>
+        <v>7841.01</v>
       </c>
       <c r="D5" t="n">
-        <v>7837.54</v>
+        <v>7964.39</v>
       </c>
       <c r="E5" t="n">
-        <v>7847.48</v>
+        <v>7844.39</v>
       </c>
       <c r="F5" t="n">
-        <v>7844.58</v>
+        <v>7822.02</v>
       </c>
       <c r="G5" t="n">
-        <v>7829.98</v>
+        <v>7857.96</v>
       </c>
       <c r="H5" t="n">
-        <v>7839.12</v>
+        <v>7830.65</v>
       </c>
       <c r="I5" t="n">
-        <v>7849.63</v>
+        <v>7837.12</v>
       </c>
       <c r="J5" t="n">
-        <v>7826.25</v>
+        <v>7837.32</v>
       </c>
       <c r="K5" t="n">
-        <v>7843.13</v>
+        <v>7847.55</v>
       </c>
       <c r="L5" t="n">
-        <v>7851.2</v>
+        <v>7832.52</v>
       </c>
       <c r="M5" t="n">
-        <v>7825.49</v>
+        <v>7828.14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7856.42</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7828.03</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7866.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7835.95</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7820.92</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7851.65</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7823.51</v>
+      </c>
+      <c r="U5" t="n">
+        <v>7853.29</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7815.05</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7823.81</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7865.68</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7829.22</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7813.11</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7848.74</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>301539.77</v>
+        <v>293744.65</v>
       </c>
       <c r="C6" t="n">
-        <v>301671.15</v>
+        <v>294946.71</v>
       </c>
       <c r="D6" t="n">
-        <v>302027.91</v>
+        <v>298442.09</v>
       </c>
       <c r="E6" t="n">
-        <v>301115.01</v>
+        <v>289288.8</v>
       </c>
       <c r="F6" t="n">
-        <v>293929.9</v>
+        <v>288578.19</v>
       </c>
       <c r="G6" t="n">
-        <v>293656.81</v>
+        <v>290443.13</v>
       </c>
       <c r="H6" t="n">
-        <v>293958.97</v>
+        <v>289321.78</v>
       </c>
       <c r="I6" t="n">
-        <v>293818.75</v>
+        <v>291495.92</v>
       </c>
       <c r="J6" t="n">
-        <v>293190.14</v>
+        <v>292199.16</v>
       </c>
       <c r="K6" t="n">
-        <v>293966.72</v>
+        <v>290067.58</v>
       </c>
       <c r="L6" t="n">
-        <v>294383.27</v>
+        <v>291584.97</v>
       </c>
       <c r="M6" t="n">
-        <v>293744.65</v>
+        <v>290680.79</v>
+      </c>
+      <c r="N6" t="n">
+        <v>292017.06</v>
+      </c>
+      <c r="O6" t="n">
+        <v>289640.56</v>
+      </c>
+      <c r="P6" t="n">
+        <v>290260.47</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>289402.33</v>
+      </c>
+      <c r="R6" t="n">
+        <v>291344.86</v>
+      </c>
+      <c r="S6" t="n">
+        <v>289631.61</v>
+      </c>
+      <c r="T6" t="n">
+        <v>289772.3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>291881.87</v>
+      </c>
+      <c r="V6" t="n">
+        <v>290569.47</v>
+      </c>
+      <c r="W6" t="n">
+        <v>291254.68</v>
+      </c>
+      <c r="X6" t="n">
+        <v>291065.71</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>291128.49</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>290386.6</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>291825.84</v>
       </c>
     </row>
     <row r="7">
@@ -717,38 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46704.71</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>49453.31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48868.72</v>
+      </c>
       <c r="D7" t="n">
-        <v>46777.07</v>
+        <v>50629.61</v>
       </c>
       <c r="E7" t="n">
-        <v>48821.24</v>
+        <v>49454.44</v>
       </c>
       <c r="F7" t="n">
-        <v>49357.93</v>
+        <v>48942.45</v>
       </c>
       <c r="G7" t="n">
-        <v>49136.44</v>
+        <v>52959.91</v>
       </c>
       <c r="H7" t="n">
-        <v>49459.12</v>
+        <v>52791.45</v>
       </c>
       <c r="I7" t="n">
-        <v>49183.12</v>
+        <v>52555.14</v>
       </c>
       <c r="J7" t="n">
-        <v>49402.05</v>
+        <v>53052.51</v>
       </c>
       <c r="K7" t="n">
-        <v>49843.53</v>
+        <v>51952.39</v>
       </c>
       <c r="L7" t="n">
-        <v>49382.5</v>
+        <v>51780.17</v>
       </c>
       <c r="M7" t="n">
-        <v>49453.31</v>
+        <v>51685.61</v>
+      </c>
+      <c r="N7" t="n">
+        <v>51675.06</v>
+      </c>
+      <c r="O7" t="n">
+        <v>53002</v>
+      </c>
+      <c r="P7" t="n">
+        <v>52443.54</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>52435.85</v>
+      </c>
+      <c r="R7" t="n">
+        <v>51853.27</v>
+      </c>
+      <c r="S7" t="n">
+        <v>51764.98</v>
+      </c>
+      <c r="T7" t="n">
+        <v>52844.41</v>
+      </c>
+      <c r="U7" t="n">
+        <v>51623.95</v>
+      </c>
+      <c r="V7" t="n">
+        <v>52251.73</v>
+      </c>
+      <c r="W7" t="n">
+        <v>51588.97</v>
+      </c>
+      <c r="X7" t="n">
+        <v>53113.57</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>53109.71</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>52297.01</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>52442.63</v>
       </c>
     </row>
     <row r="8">
@@ -758,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62503.09</v>
+        <v>62776.94</v>
       </c>
       <c r="C8" t="n">
-        <v>62757.32</v>
+        <v>62826.92</v>
       </c>
       <c r="D8" t="n">
-        <v>62198.03</v>
+        <v>63121.11</v>
       </c>
       <c r="E8" t="n">
-        <v>62456.83</v>
+        <v>62012.07</v>
       </c>
       <c r="F8" t="n">
-        <v>62205.9</v>
+        <v>62412.7</v>
       </c>
       <c r="G8" t="n">
-        <v>62891.05</v>
+        <v>63488.58</v>
       </c>
       <c r="H8" t="n">
-        <v>62010.47</v>
+        <v>63227.44</v>
       </c>
       <c r="I8" t="n">
-        <v>62208.23</v>
+        <v>66283.72</v>
       </c>
       <c r="J8" t="n">
-        <v>62680.31</v>
+        <v>66623.2</v>
       </c>
       <c r="K8" t="n">
-        <v>62351.88</v>
+        <v>66213.74000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>62098.09</v>
+        <v>66659.07000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>62776.94</v>
+        <v>66472.17999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>67021.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>66930.89999999999</v>
+      </c>
+      <c r="P8" t="n">
+        <v>66404.61</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>67251.92999999999</v>
+      </c>
+      <c r="R8" t="n">
+        <v>67573.78999999999</v>
+      </c>
+      <c r="S8" t="n">
+        <v>67846.57000000001</v>
+      </c>
+      <c r="T8" t="n">
+        <v>67103.99000000001</v>
+      </c>
+      <c r="U8" t="n">
+        <v>67008.02</v>
+      </c>
+      <c r="V8" t="n">
+        <v>67296.08</v>
+      </c>
+      <c r="W8" t="n">
+        <v>67015.28999999999</v>
+      </c>
+      <c r="X8" t="n">
+        <v>67637.60000000001</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>67845.25999999999</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>66999.61</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>66990.53999999999</v>
       </c>
     </row>
     <row r="9">
@@ -801,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74050.52</v>
+        <v>74105.14</v>
       </c>
       <c r="C9" t="n">
-        <v>74056.39999999999</v>
+        <v>74191.28999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>74255.87</v>
+        <v>75336.64999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>74246.2</v>
+        <v>74257.28</v>
       </c>
       <c r="F9" t="n">
-        <v>74204.92999999999</v>
+        <v>74199.58</v>
       </c>
       <c r="G9" t="n">
-        <v>74046.14999999999</v>
+        <v>74266.75999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>74095.69</v>
+        <v>74130.03999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>74120.23</v>
+        <v>74135.56</v>
       </c>
       <c r="J9" t="n">
-        <v>73984.64</v>
+        <v>74068.78</v>
       </c>
       <c r="K9" t="n">
-        <v>74174.61</v>
+        <v>74085.13</v>
       </c>
       <c r="L9" t="n">
-        <v>74120.11</v>
+        <v>73962.67</v>
       </c>
       <c r="M9" t="n">
-        <v>74105.14</v>
+        <v>74068.52</v>
+      </c>
+      <c r="N9" t="n">
+        <v>74260.02</v>
+      </c>
+      <c r="O9" t="n">
+        <v>74062.89999999999</v>
+      </c>
+      <c r="P9" t="n">
+        <v>74113.91</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>74291.62</v>
+      </c>
+      <c r="R9" t="n">
+        <v>74008.57000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>74001.86</v>
+      </c>
+      <c r="T9" t="n">
+        <v>74025.21000000001</v>
+      </c>
+      <c r="U9" t="n">
+        <v>74136.97</v>
+      </c>
+      <c r="V9" t="n">
+        <v>74288.28999999999</v>
+      </c>
+      <c r="W9" t="n">
+        <v>74291.94</v>
+      </c>
+      <c r="X9" t="n">
+        <v>74187.95</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>74054.42</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>74278.08</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>74178.87</v>
       </c>
     </row>
     <row r="10">
@@ -844,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774.84</v>
+        <v>665.4299999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>866.99</v>
+        <v>683.3099999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>940.34</v>
+        <v>714.13</v>
       </c>
       <c r="E10" t="n">
-        <v>904.4299999999999</v>
+        <v>742.4299999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>818.02</v>
+        <v>694.14</v>
       </c>
       <c r="G10" t="n">
-        <v>835.01</v>
+        <v>642.37</v>
       </c>
       <c r="H10" t="n">
-        <v>886.99</v>
+        <v>676.95</v>
       </c>
       <c r="I10" t="n">
-        <v>799.8200000000001</v>
+        <v>698.4</v>
       </c>
       <c r="J10" t="n">
-        <v>774.17</v>
+        <v>701.11</v>
       </c>
       <c r="K10" t="n">
-        <v>745.79</v>
+        <v>729.67</v>
       </c>
       <c r="L10" t="n">
-        <v>656.1799999999999</v>
+        <v>723.22</v>
       </c>
       <c r="M10" t="n">
-        <v>665.4299999999999</v>
+        <v>796.5700000000001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>845.11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>930.7</v>
+      </c>
+      <c r="P10" t="n">
+        <v>946.74</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>500.37</v>
+      </c>
+      <c r="R10" t="n">
+        <v>488.36</v>
+      </c>
+      <c r="S10" t="n">
+        <v>918.88</v>
+      </c>
+      <c r="T10" t="n">
+        <v>861.42</v>
+      </c>
+      <c r="U10" t="n">
+        <v>874.12</v>
+      </c>
+      <c r="V10" t="n">
+        <v>892.58</v>
+      </c>
+      <c r="W10" t="n">
+        <v>482.07</v>
+      </c>
+      <c r="X10" t="n">
+        <v>480.61</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>877.6799999999999</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>854.64</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>865.91</v>
       </c>
     </row>
     <row r="11">
@@ -887,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1368.26</v>
+        <v>1954.81</v>
       </c>
       <c r="C11" t="n">
-        <v>1545.1</v>
+        <v>1374.56</v>
       </c>
       <c r="D11" t="n">
-        <v>1368.61</v>
+        <v>1433.1</v>
       </c>
       <c r="E11" t="n">
-        <v>1364.04</v>
+        <v>1515.81</v>
       </c>
       <c r="F11" t="n">
-        <v>1934.65</v>
+        <v>1422.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1365.39</v>
+        <v>1437.14</v>
       </c>
       <c r="H11" t="n">
-        <v>1452.53</v>
+        <v>1531.72</v>
       </c>
       <c r="I11" t="n">
-        <v>1448.11</v>
+        <v>1573.81</v>
       </c>
       <c r="J11" t="n">
-        <v>1437.06</v>
+        <v>1569.48</v>
       </c>
       <c r="K11" t="n">
-        <v>1422.54</v>
+        <v>1614.56</v>
       </c>
       <c r="L11" t="n">
-        <v>1932.7</v>
+        <v>1587.67</v>
       </c>
       <c r="M11" t="n">
-        <v>1954.81</v>
+        <v>1738.3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1812.48</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1953.52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1978.46</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2054.46</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2011</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1883.21</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1774.7</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1841.34</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1884.88</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2022.01</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1806.97</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1621.11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1583.08</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1630.59</v>
       </c>
     </row>
     <row r="12">
@@ -930,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>58306.03</v>
+        <v>57725.56</v>
       </c>
       <c r="C12" t="n">
-        <v>59570.94</v>
+        <v>57836.53</v>
       </c>
       <c r="D12" t="n">
-        <v>58423.22</v>
+        <v>58741.32</v>
       </c>
       <c r="E12" t="n">
-        <v>58517.63</v>
+        <v>57397.58</v>
       </c>
       <c r="F12" t="n">
-        <v>57832.56</v>
+        <v>57032.75</v>
       </c>
       <c r="G12" t="n">
-        <v>57769.7</v>
+        <v>57761.87</v>
       </c>
       <c r="H12" t="n">
-        <v>57554.46</v>
+        <v>57695.84</v>
       </c>
       <c r="I12" t="n">
-        <v>57649.8</v>
+        <v>58206.64</v>
       </c>
       <c r="J12" t="n">
-        <v>57527.5</v>
+        <v>58372.72</v>
       </c>
       <c r="K12" t="n">
-        <v>57772.62</v>
+        <v>58007.6</v>
       </c>
       <c r="L12" t="n">
-        <v>57765.41</v>
+        <v>58071.63</v>
       </c>
       <c r="M12" t="n">
-        <v>57725.56</v>
+        <v>58098.01</v>
+      </c>
+      <c r="N12" t="n">
+        <v>58350.33</v>
+      </c>
+      <c r="O12" t="n">
+        <v>57954.08</v>
+      </c>
+      <c r="P12" t="n">
+        <v>58000.37</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>58070.71</v>
+      </c>
+      <c r="R12" t="n">
+        <v>58439.93</v>
+      </c>
+      <c r="S12" t="n">
+        <v>58140.02</v>
+      </c>
+      <c r="T12" t="n">
+        <v>58041.55</v>
+      </c>
+      <c r="U12" t="n">
+        <v>58296.98</v>
+      </c>
+      <c r="V12" t="n">
+        <v>58188.92</v>
+      </c>
+      <c r="W12" t="n">
+        <v>58340.69</v>
+      </c>
+      <c r="X12" t="n">
+        <v>58415.28</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>58145.12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>58185.02</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>58398.21</v>
       </c>
     </row>
     <row r="13">
@@ -973,40 +1507,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>583060.33</v>
+        <v>577255.55</v>
       </c>
       <c r="C13" t="n">
-        <v>536138.4300000001</v>
+        <v>578365.27</v>
       </c>
       <c r="D13" t="n">
-        <v>584232.17</v>
+        <v>587413.25</v>
       </c>
       <c r="E13" t="n">
-        <v>585176.3</v>
+        <v>573975.8199999999</v>
       </c>
       <c r="F13" t="n">
-        <v>578325.62</v>
+        <v>570327.47</v>
       </c>
       <c r="G13" t="n">
-        <v>577696.97</v>
+        <v>577618.71</v>
       </c>
       <c r="H13" t="n">
-        <v>575544.61</v>
+        <v>576958.36</v>
       </c>
       <c r="I13" t="n">
-        <v>576498.04</v>
+        <v>582066.45</v>
       </c>
       <c r="J13" t="n">
-        <v>575274.98</v>
+        <v>583727.22</v>
       </c>
       <c r="K13" t="n">
-        <v>577726.22</v>
+        <v>580076</v>
       </c>
       <c r="L13" t="n">
-        <v>577654.09</v>
+        <v>580716.3199999999</v>
       </c>
       <c r="M13" t="n">
-        <v>577255.55</v>
+        <v>580980.13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>583503.3100000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>579540.8100000001</v>
+      </c>
+      <c r="P13" t="n">
+        <v>580003.66</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>580707.13</v>
+      </c>
+      <c r="R13" t="n">
+        <v>584399.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>581400.2</v>
+      </c>
+      <c r="T13" t="n">
+        <v>580415.48</v>
+      </c>
+      <c r="U13" t="n">
+        <v>582969.78</v>
+      </c>
+      <c r="V13" t="n">
+        <v>581889.2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>583406.87</v>
+      </c>
+      <c r="X13" t="n">
+        <v>584152.8</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>581451.22</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>581850.17</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>583982.12</v>
       </c>
     </row>
   </sheetData>
